--- a/results/gurobi_limits/seed_30_k_100.xlsx
+++ b/results/gurobi_limits/seed_30_k_100.xlsx
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>31.426</v>
+        <v>428.678</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.45</v>
+        <v>546.8680000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>70.553</v>
+        <v>777.323</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>122.112</v>
+        <v>1221.969</v>
       </c>
     </row>
   </sheetData>
